--- a/OpenCart-Test Scenarios .xlsx
+++ b/OpenCart-Test Scenarios .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Google Drive\Full Stack QA_05-Jan-2021\Day10-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Testing\Manual Testing Projects\OpenCart Test Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D0E52B7-DAF5-4F04-935D-723F4638E8F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCCCDBB-8C3E-4715-BF72-6BF8C074CEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1800" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="83">
   <si>
     <t>Project Name</t>
   </si>
@@ -174,9 +174,6 @@
     <t>OpenCart</t>
   </si>
   <si>
-    <t>Pavan</t>
-  </si>
-  <si>
     <t>Validate the working of Register Account functionality</t>
   </si>
   <si>
@@ -276,7 +273,7 @@
     <t>Validate the working of Checkout functionality</t>
   </si>
   <si>
-    <t>DD-MM-YYYY</t>
+    <t>SYEDA TAMANNA SHEME</t>
   </si>
 </sst>
 </file>
@@ -426,14 +423,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -452,21 +446,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -479,13 +464,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -769,620 +754,617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A2:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="20"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="20"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="16">
+        <v>45505</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="16">
+        <v>45514</v>
+      </c>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="10" spans="1:5" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="20"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="20"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="9">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="9">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="B41" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="9">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="9">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="9">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="9">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="18">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E41" s="18">
+      <c r="E41" s="12">
         <v>3</v>
       </c>
     </row>
